--- a/data_group/significance_results_evapo_testt.xlsx
+++ b/data_group/significance_results_evapo_testt.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBA_PF_vs_SF_beginning</t>
+          <t>CBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EBA_PF_vs_SF_beginning</t>
+          <t>EBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SBA_PF_vs_SF_beginning</t>
+          <t>SBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/data_group/significance_results_evapo_testt.xlsx
+++ b/data_group/significance_results_evapo_testt.xlsx
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>8.435143275790986E-15</v>
+        <v>1.582044648405708E-13</v>
       </c>
       <c r="C2">
-        <v>1.662678172976948E-15</v>
+        <v>4.003597855005064E-14</v>
       </c>
       <c r="D2">
-        <v>1.272801574254756E-10</v>
+        <v>2.229266554361056E-09</v>
       </c>
       <c r="E2">
-        <v>0.1612026198116001</v>
+        <v>0.1021519345880233</v>
       </c>
       <c r="F2">
-        <v>0.1742123559048499</v>
+        <v>0.1146787552999698</v>
       </c>
       <c r="G2">
-        <v>0.2364641047539095</v>
+        <v>0.1719504483801857</v>
       </c>
       <c r="H2">
-        <v>0.1163059211601311</v>
+        <v>0.402522333173853</v>
       </c>
       <c r="I2">
-        <v>0.1332908862913164</v>
+        <v>0.4154259215675312</v>
       </c>
       <c r="J2">
-        <v>0.01351611269645827</v>
+        <v>0.6470347742603944</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>2.197167264355403E-09</v>
+        <v>7.267013312889191E-09</v>
       </c>
       <c r="C3">
-        <v>9.77183362530847E-10</v>
+        <v>4.330062604977904E-09</v>
       </c>
       <c r="D3">
-        <v>3.119126908611138E-05</v>
+        <v>7.93049888217507E-05</v>
       </c>
       <c r="E3">
-        <v>0.1736111958186753</v>
+        <v>0.05036958923690259</v>
       </c>
       <c r="F3">
-        <v>0.3750781373125005</v>
+        <v>0.1409638751730637</v>
       </c>
       <c r="G3">
-        <v>0.4172983902800044</v>
+        <v>0.1951362123777046</v>
       </c>
       <c r="H3">
-        <v>0.06052265366257896</v>
+        <v>0.5438825786281909</v>
       </c>
       <c r="I3">
-        <v>0.150246568527984</v>
+        <v>0.8413849241660514</v>
       </c>
       <c r="J3">
-        <v>0.02773959078589684</v>
+        <v>0.2903206596267477</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.253925160547429E-05</v>
+        <v>1.727943310685744E-05</v>
       </c>
       <c r="C4">
-        <v>4.690955265832842E-06</v>
+        <v>7.413402704417124E-06</v>
       </c>
       <c r="D4">
-        <v>0.004324864437042014</v>
+        <v>0.005180475406164826</v>
       </c>
       <c r="E4">
-        <v>0.0389061802121019</v>
+        <v>0.02325454932285499</v>
       </c>
       <c r="F4">
-        <v>0.08943013848984203</v>
+        <v>0.0568237058045053</v>
       </c>
       <c r="G4">
-        <v>0.08601858668388719</v>
+        <v>0.0577139096396635</v>
       </c>
       <c r="H4">
-        <v>0.1733131522990247</v>
+        <v>0.5765505457411448</v>
       </c>
       <c r="I4">
-        <v>0.1332047345268139</v>
+        <v>0.4414491987568612</v>
       </c>
       <c r="J4">
-        <v>0.006338641519374752</v>
+        <v>0.02731720660923482</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.000119905114699736</v>
+        <v>0.0001272209491717132</v>
       </c>
       <c r="C5">
-        <v>0.0001585039353246279</v>
+        <v>0.0001720289352154051</v>
       </c>
       <c r="D5">
-        <v>0.04636399409335869</v>
+        <v>0.04435434901698296</v>
       </c>
       <c r="E5">
-        <v>0.0005933290235100265</v>
+        <v>0.001344171211815372</v>
       </c>
       <c r="F5">
-        <v>0.004976923376844107</v>
+        <v>0.01050630346768935</v>
       </c>
       <c r="G5">
-        <v>0.00457585728304209</v>
+        <v>0.008467082151106128</v>
       </c>
       <c r="H5">
-        <v>0.5168393296282823</v>
+        <v>0.9023990776796801</v>
       </c>
       <c r="I5">
-        <v>0.2430951233382961</v>
+        <v>0.4831404807773817</v>
       </c>
       <c r="J5">
-        <v>0.00704830500723893</v>
+        <v>0.02012618127422276</v>
       </c>
     </row>
     <row r="6">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.0003808906331056482</v>
+        <v>0.0003900120540298514</v>
       </c>
       <c r="C6">
-        <v>0.0001540575075878629</v>
+        <v>0.0001607984033384089</v>
       </c>
       <c r="D6">
-        <v>0.1090599032606097</v>
+        <v>0.10646021713846</v>
       </c>
       <c r="E6">
-        <v>6.065950724184759E-06</v>
+        <v>1.726352671999573E-05</v>
       </c>
       <c r="F6">
-        <v>1.935512542025567E-05</v>
+        <v>5.434532028126156E-05</v>
       </c>
       <c r="G6">
-        <v>7.114044215464962E-05</v>
+        <v>0.000168865463516106</v>
       </c>
       <c r="H6">
-        <v>0.2380734490761357</v>
+        <v>0.377575050766643</v>
       </c>
       <c r="I6">
-        <v>0.1554952055746706</v>
+        <v>0.2472486331488055</v>
       </c>
       <c r="J6">
-        <v>0.002282186219633227</v>
+        <v>0.004495543296889814</v>
       </c>
     </row>
     <row r="7">
